--- a/experiments/capital/bert-base-uncased_15/word_level_predictions_67.xlsx
+++ b/experiments/capital/bert-base-uncased_15/word_level_predictions_67.xlsx
@@ -2374,314 +2374,314 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>4</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,314 +3050,314 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>2</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>4</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>5</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3414,156 +3414,156 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>4</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>4</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>8</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>4</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>9</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7990,158 +7990,158 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>5</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>6</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>7</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9446,468 +9446,468 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>10</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>11</v>
-      </c>
-      <c r="E177" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="F179" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>12</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>13</v>
-      </c>
-      <c r="E179" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="F181" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>trigger</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>14</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>15</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>15</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>15</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="F182" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13398,156 +13398,156 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>19</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>19</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Aircraft is tilted , please keep the aircraft stationary and level before flight .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>tilted</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>2</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F252" s="2" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -17610,470 +17610,470 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="2" t="n">
+      <c r="A331" t="n">
         <v>26</v>
       </c>
-      <c r="B331" s="2" t="inlineStr">
+      <c r="B331" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C331" s="2" t="inlineStr">
+      <c r="C331" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D331" s="2" t="n">
+      <c r="D331" t="n">
         <v>4</v>
       </c>
-      <c r="E331" s="2" t="inlineStr">
+      <c r="E331" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F331" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H331" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I331" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K331" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L331" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I331" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K331" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="2" t="n">
+      <c r="A332" t="n">
         <v>26</v>
       </c>
-      <c r="B332" s="2" t="inlineStr">
+      <c r="B332" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C332" s="2" t="inlineStr">
+      <c r="C332" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D332" s="2" t="n">
+      <c r="D332" t="n">
         <v>5</v>
       </c>
-      <c r="E332" s="2" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F332" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H332" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I332" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K332" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L332" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I332" t="b">
+        <v>1</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K332" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="2" t="n">
+      <c r="A333" t="n">
         <v>26</v>
       </c>
-      <c r="B333" s="2" t="inlineStr">
+      <c r="B333" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C333" s="2" t="inlineStr">
+      <c r="C333" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D333" s="2" t="n">
+      <c r="D333" t="n">
         <v>6</v>
       </c>
-      <c r="E333" s="2" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F333" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H333" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I333" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K333" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L333" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I333" t="b">
+        <v>1</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K333" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="2" t="n">
+      <c r="A334" t="n">
         <v>26</v>
       </c>
-      <c r="B334" s="2" t="inlineStr">
+      <c r="B334" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C334" s="2" t="inlineStr">
+      <c r="C334" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D334" s="2" t="n">
+      <c r="D334" t="n">
         <v>7</v>
       </c>
-      <c r="E334" s="2" t="inlineStr">
+      <c r="E334" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F334" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G334" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H334" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I334" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K334" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L334" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I334" t="b">
+        <v>1</v>
+      </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K334" t="b">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="2" t="n">
+      <c r="A335" t="n">
         <v>26</v>
       </c>
-      <c r="B335" s="2" t="inlineStr">
+      <c r="B335" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C335" s="2" t="inlineStr">
+      <c r="C335" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D335" s="2" t="n">
+      <c r="D335" t="n">
         <v>8</v>
       </c>
-      <c r="E335" s="2" t="inlineStr">
+      <c r="E335" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F335" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G335" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H335" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I335" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K335" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L335" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I335" t="b">
+        <v>1</v>
+      </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K335" t="b">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="2" t="n">
+      <c r="A336" t="n">
         <v>26</v>
       </c>
-      <c r="B336" s="2" t="inlineStr">
+      <c r="B336" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C336" s="2" t="inlineStr">
+      <c r="C336" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D336" s="2" t="n">
+      <c r="D336" t="n">
         <v>9</v>
       </c>
-      <c r="E336" s="2" t="inlineStr">
+      <c r="E336" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F336" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G336" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H336" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I336" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K336" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L336" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I336" t="b">
+        <v>1</v>
+      </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K336" t="b">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="2" t="n">
+      <c r="A337" t="n">
         <v>26</v>
       </c>
-      <c r="B337" s="2" t="inlineStr">
+      <c r="B337" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C337" s="2" t="inlineStr">
+      <c r="C337" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D337" s="2" t="n">
+      <c r="D337" t="n">
         <v>10</v>
       </c>
-      <c r="E337" s="2" t="inlineStr">
+      <c r="E337" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F337" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G337" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H337" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I337" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K337" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L337" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I337" t="b">
+        <v>1</v>
+      </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K337" t="b">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="2" t="n">
+      <c r="A338" t="n">
         <v>26</v>
       </c>
-      <c r="B338" s="2" t="inlineStr">
+      <c r="B338" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C338" s="2" t="inlineStr">
+      <c r="C338" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D338" s="2" t="n">
+      <c r="D338" t="n">
         <v>11</v>
       </c>
-      <c r="E338" s="2" t="inlineStr">
+      <c r="E338" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F338" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G338" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H338" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I338" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K338" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L338" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G338" t="b">
+        <v>1</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I338" t="b">
+        <v>1</v>
+      </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K338" t="b">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" t="n">
         <v>26</v>
       </c>
-      <c r="B339" s="2" t="inlineStr">
+      <c r="B339" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C339" s="2" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D339" s="2" t="n">
+      <c r="D339" t="n">
         <v>12</v>
       </c>
-      <c r="E339" s="2" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F339" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L339" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18598,262 +18598,262 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" t="n">
         <v>27</v>
       </c>
-      <c r="B350" s="2" t="inlineStr">
+      <c r="B350" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C350" s="2" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D350" s="2" t="n">
+      <c r="D350" t="n">
         <v>5</v>
       </c>
-      <c r="E350" s="2" t="inlineStr">
+      <c r="E350" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F350" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K350" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L350" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G350" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I350" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K350" t="b">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" t="n">
         <v>27</v>
       </c>
-      <c r="B351" s="2" t="inlineStr">
+      <c r="B351" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C351" s="2" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>enable</t>
         </is>
       </c>
-      <c r="D351" s="2" t="n">
+      <c r="D351" t="n">
         <v>6</v>
       </c>
-      <c r="E351" s="2" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F351" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G351" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H351" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I351" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K351" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L351" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I351" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K351" t="b">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="2" t="n">
+      <c r="A352" t="n">
         <v>27</v>
       </c>
-      <c r="B352" s="2" t="inlineStr">
+      <c r="B352" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C352" s="2" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>Follow</t>
         </is>
       </c>
-      <c r="D352" s="2" t="n">
+      <c r="D352" t="n">
         <v>7</v>
       </c>
-      <c r="E352" s="2" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F352" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G352" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H352" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I352" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K352" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L352" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I352" t="b">
+        <v>1</v>
+      </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K352" t="b">
+        <v>1</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="n">
+      <c r="A353" t="n">
         <v>27</v>
       </c>
-      <c r="B353" s="2" t="inlineStr">
+      <c r="B353" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C353" s="2" t="inlineStr">
+      <c r="C353" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="D353" s="2" t="n">
+      <c r="D353" t="n">
         <v>8</v>
       </c>
-      <c r="E353" s="2" t="inlineStr">
+      <c r="E353" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F353" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G353" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H353" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I353" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K353" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L353" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G353" t="b">
+        <v>1</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I353" t="b">
+        <v>1</v>
+      </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K353" t="b">
+        <v>1</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="2" t="n">
+      <c r="A354" t="n">
         <v>27</v>
       </c>
-      <c r="B354" s="2" t="inlineStr">
+      <c r="B354" t="inlineStr">
         <is>
           <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
-      <c r="C354" s="2" t="inlineStr">
+      <c r="C354" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D354" s="2" t="n">
+      <c r="D354" t="n">
         <v>9</v>
       </c>
-      <c r="E354" s="2" t="inlineStr">
+      <c r="E354" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F354" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G354" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H354" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I354" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K354" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L354" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G354" t="b">
+        <v>1</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I354" t="b">
+        <v>1</v>
+      </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K354" t="b">
+        <v>1</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25462,156 +25462,156 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="2" t="n">
+      <c r="A482" t="n">
         <v>40</v>
       </c>
-      <c r="B482" s="2" t="inlineStr">
+      <c r="B482" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C482" s="2" t="inlineStr">
+      <c r="C482" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D482" s="2" t="n">
+      <c r="D482" t="n">
         <v>3</v>
       </c>
-      <c r="E482" s="2" t="inlineStr">
+      <c r="E482" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F482" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G482" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H482" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I482" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J482" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K482" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L482" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G482" t="b">
+        <v>1</v>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I482" t="b">
+        <v>1</v>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K482" t="b">
+        <v>1</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="2" t="n">
+      <c r="A483" t="n">
         <v>40</v>
       </c>
-      <c r="B483" s="2" t="inlineStr">
+      <c r="B483" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C483" s="2" t="inlineStr">
+      <c r="C483" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D483" s="2" t="n">
+      <c r="D483" t="n">
         <v>4</v>
       </c>
-      <c r="E483" s="2" t="inlineStr">
+      <c r="E483" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F483" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G483" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H483" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J483" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K483" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L483" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I483" t="b">
+        <v>1</v>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K483" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="2" t="n">
+      <c r="A484" t="n">
         <v>40</v>
       </c>
-      <c r="B484" s="2" t="inlineStr">
+      <c r="B484" t="inlineStr">
         <is>
           <t>Camera error . AI Spot-Check failed . Restart camera .</t>
         </is>
       </c>
-      <c r="C484" s="2" t="inlineStr">
+      <c r="C484" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D484" s="2" t="n">
+      <c r="D484" t="n">
         <v>5</v>
       </c>
-      <c r="E484" s="2" t="inlineStr">
+      <c r="E484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F484" s="2" t="inlineStr">
+      <c r="F484" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G484" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H484" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J484" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K484" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L484" s="2" t="inlineStr">
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I484" t="b">
+        <v>1</v>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K484" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26814,106 +26814,106 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="2" t="n">
+      <c r="A508" t="n">
         <v>42</v>
       </c>
-      <c r="B508" s="2" t="inlineStr">
+      <c r="B508" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C508" s="2" t="inlineStr">
+      <c r="C508" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D508" s="2" t="n">
+      <c r="D508" t="n">
         <v>4</v>
       </c>
-      <c r="E508" s="2" t="inlineStr">
+      <c r="E508" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F508" s="2" t="inlineStr">
+      <c r="F508" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G508" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H508" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I508" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J508" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K508" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L508" s="2" t="inlineStr">
+      <c r="G508" t="b">
+        <v>1</v>
+      </c>
+      <c r="H508" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I508" t="b">
+        <v>1</v>
+      </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K508" t="b">
+        <v>1</v>
+      </c>
+      <c r="L508" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="2" t="n">
+      <c r="A509" t="n">
         <v>42</v>
       </c>
-      <c r="B509" s="2" t="inlineStr">
+      <c r="B509" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C509" s="2" t="inlineStr">
+      <c r="C509" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D509" s="2" t="n">
+      <c r="D509" t="n">
         <v>5</v>
       </c>
-      <c r="E509" s="2" t="inlineStr">
+      <c r="E509" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F509" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G509" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H509" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I509" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J509" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K509" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L509" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G509" t="b">
+        <v>1</v>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I509" t="b">
+        <v>1</v>
+      </c>
+      <c r="J509" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K509" t="b">
+        <v>1</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -26970,364 +26970,364 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="2" t="n">
+      <c r="A511" t="n">
         <v>42</v>
       </c>
-      <c r="B511" s="2" t="inlineStr">
+      <c r="B511" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C511" s="2" t="inlineStr">
+      <c r="C511" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D511" s="2" t="n">
+      <c r="D511" t="n">
         <v>7</v>
       </c>
-      <c r="E511" s="2" t="inlineStr">
+      <c r="E511" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F511" s="2" t="inlineStr">
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G511" t="b">
+        <v>1</v>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I511" t="b">
+        <v>1</v>
+      </c>
+      <c r="J511" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K511" t="b">
+        <v>1</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>42</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>8</v>
+      </c>
+      <c r="E512" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G511" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H511" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I511" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J511" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K511" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L511" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="2" t="n">
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G512" t="b">
+        <v>1</v>
+      </c>
+      <c r="H512" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I512" t="b">
+        <v>1</v>
+      </c>
+      <c r="J512" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K512" t="b">
+        <v>1</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
         <v>42</v>
       </c>
-      <c r="B512" s="2" t="inlineStr">
+      <c r="B513" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C512" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D512" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E512" s="2" t="inlineStr">
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>9</v>
+      </c>
+      <c r="E513" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F512" s="2" t="inlineStr">
+      <c r="F513" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G512" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H512" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I512" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J512" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K512" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L512" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="2" t="n">
+      <c r="G513" t="b">
+        <v>1</v>
+      </c>
+      <c r="H513" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I513" t="b">
+        <v>1</v>
+      </c>
+      <c r="J513" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K513" t="b">
+        <v>1</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
         <v>42</v>
       </c>
-      <c r="B513" s="2" t="inlineStr">
+      <c r="B514" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C513" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D513" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E513" s="2" t="inlineStr">
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>10</v>
+      </c>
+      <c r="E514" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F513" s="2" t="inlineStr">
+      <c r="F514" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G513" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H513" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I513" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J513" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K513" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L513" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="2" t="n">
+      <c r="G514" t="b">
+        <v>1</v>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I514" t="b">
+        <v>1</v>
+      </c>
+      <c r="J514" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K514" t="b">
+        <v>1</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
         <v>42</v>
       </c>
-      <c r="B514" s="2" t="inlineStr">
+      <c r="B515" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C514" s="2" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D514" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E514" s="2" t="inlineStr">
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>arrange</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>11</v>
+      </c>
+      <c r="E515" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F514" s="2" t="inlineStr">
+      <c r="F515" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G514" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H514" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I514" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J514" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K514" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L514" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="2" t="n">
+      <c r="G515" t="b">
+        <v>1</v>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I515" t="b">
+        <v>1</v>
+      </c>
+      <c r="J515" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K515" t="b">
+        <v>1</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
         <v>42</v>
       </c>
-      <c r="B515" s="2" t="inlineStr">
+      <c r="B516" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C515" s="2" t="inlineStr">
-        <is>
-          <t>arrange</t>
-        </is>
-      </c>
-      <c r="D515" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E515" s="2" t="inlineStr">
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>12</v>
+      </c>
+      <c r="E516" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F515" s="2" t="inlineStr">
+      <c r="F516" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G515" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H515" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I515" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J515" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K515" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L515" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="2" t="n">
+      <c r="G516" t="b">
+        <v>1</v>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I516" t="b">
+        <v>1</v>
+      </c>
+      <c r="J516" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K516" t="b">
+        <v>1</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
         <v>42</v>
       </c>
-      <c r="B516" s="2" t="inlineStr">
+      <c r="B517" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C516" s="2" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="D516" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E516" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F516" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G516" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H516" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I516" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J516" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K516" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L516" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B517" s="2" t="inlineStr">
-        <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
-        </is>
-      </c>
-      <c r="C517" s="2" t="inlineStr">
+      <c r="C517" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D517" s="2" t="n">
+      <c r="D517" t="n">
         <v>13</v>
       </c>
-      <c r="E517" s="2" t="inlineStr">
+      <c r="E517" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F517" s="2" t="inlineStr">
+      <c r="F517" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G517" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H517" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I517" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J517" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K517" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L517" s="2" t="inlineStr">
+      <c r="G517" t="b">
+        <v>1</v>
+      </c>
+      <c r="H517" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I517" t="b">
+        <v>1</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K517" t="b">
+        <v>1</v>
+      </c>
+      <c r="L517" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -32817,7 +32817,7 @@
       </c>
       <c r="F623" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G623" s="2" t="b">
@@ -32841,7 +32841,7 @@
       </c>
       <c r="L623" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -36486,106 +36486,106 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" s="2" t="n">
+      <c r="A694" t="n">
         <v>56</v>
       </c>
-      <c r="B694" s="2" t="inlineStr">
+      <c r="B694" t="inlineStr">
         <is>
           <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C694" s="2" t="inlineStr">
+      <c r="C694" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D694" s="2" t="n">
+      <c r="D694" t="n">
         <v>3</v>
       </c>
-      <c r="E694" s="2" t="inlineStr">
+      <c r="E694" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F694" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G694" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H694" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I694" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J694" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K694" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L694" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G694" t="b">
+        <v>1</v>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I694" t="b">
+        <v>1</v>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K694" t="b">
+        <v>1</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="695">
-      <c r="A695" s="2" t="n">
+      <c r="A695" t="n">
         <v>56</v>
       </c>
-      <c r="B695" s="2" t="inlineStr">
+      <c r="B695" t="inlineStr">
         <is>
           <t>Compass Stuck . Restart Aircraft . Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C695" s="2" t="inlineStr">
+      <c r="C695" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D695" s="2" t="n">
+      <c r="D695" t="n">
         <v>4</v>
       </c>
-      <c r="E695" s="2" t="inlineStr">
+      <c r="E695" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F695" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G695" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H695" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I695" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J695" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K695" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L695" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G695" t="b">
+        <v>1</v>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I695" t="b">
+        <v>1</v>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K695" t="b">
+        <v>1</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -40825,81 +40825,81 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G777" t="b">
+        <v>1</v>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I777" t="b">
+        <v>1</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K777" t="b">
+        <v>1</v>
+      </c>
+      <c r="L777" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>66</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Downlink data connection lost for nnn seconds .</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>seconds</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>6</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G777" t="b">
-        <v>1</v>
-      </c>
-      <c r="H777" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I777" t="b">
-        <v>1</v>
-      </c>
-      <c r="J777" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K777" t="b">
-        <v>1</v>
-      </c>
-      <c r="L777" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B778" s="2" t="inlineStr">
-        <is>
-          <t>Downlink data connection lost for nnn seconds .</t>
-        </is>
-      </c>
-      <c r="C778" s="2" t="inlineStr">
-        <is>
-          <t>seconds</t>
-        </is>
-      </c>
-      <c r="D778" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E778" s="2" t="inlineStr">
+      <c r="F778" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F778" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G778" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H778" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I778" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J778" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K778" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L778" s="2" t="inlineStr">
+      <c r="G778" t="b">
+        <v>1</v>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I778" t="b">
+        <v>1</v>
+      </c>
+      <c r="J778" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K778" t="b">
+        <v>1</v>
+      </c>
+      <c r="L778" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -42622,262 +42622,262 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" t="n">
+      <c r="A812" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B812" t="inlineStr">
+      <c r="B812" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C812" t="inlineStr">
+      <c r="C812" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D812" t="n">
+      <c r="D812" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E812" t="inlineStr">
+      <c r="E812" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F812" t="inlineStr">
+      <c r="F812" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G812" t="b">
-        <v>1</v>
-      </c>
-      <c r="H812" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I812" t="b">
-        <v>1</v>
-      </c>
-      <c r="J812" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K812" t="b">
-        <v>1</v>
-      </c>
-      <c r="L812" t="inlineStr">
+      <c r="G812" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H812" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I812" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J812" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K812" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L812" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="813">
-      <c r="A813" t="n">
+      <c r="A813" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B813" t="inlineStr">
+      <c r="B813" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C813" t="inlineStr">
+      <c r="C813" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D813" t="n">
+      <c r="D813" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E813" t="inlineStr">
+      <c r="E813" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F813" t="inlineStr">
+      <c r="F813" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G813" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H813" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I813" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J813" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K813" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L813" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B814" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C814" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D814" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E814" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G813" t="b">
-        <v>1</v>
-      </c>
-      <c r="H813" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I813" t="b">
-        <v>1</v>
-      </c>
-      <c r="J813" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K813" t="b">
-        <v>1</v>
-      </c>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="n">
+      <c r="F814" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G814" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H814" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I814" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J814" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K814" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L814" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B814" t="inlineStr">
+      <c r="B815" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C814" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D814" t="n">
-        <v>16</v>
-      </c>
-      <c r="E814" t="inlineStr">
+      <c r="C815" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D815" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E815" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F814" t="inlineStr">
+      <c r="F815" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G814" t="b">
-        <v>1</v>
-      </c>
-      <c r="H814" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I814" t="b">
-        <v>1</v>
-      </c>
-      <c r="J814" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K814" t="b">
-        <v>1</v>
-      </c>
-      <c r="L814" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="n">
+      <c r="G815" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H815" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I815" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J815" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K815" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L815" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="B815" t="inlineStr">
+      <c r="B816" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
-      <c r="C815" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D815" t="n">
-        <v>17</v>
-      </c>
-      <c r="E815" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G815" t="b">
-        <v>1</v>
-      </c>
-      <c r="H815" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I815" t="b">
-        <v>1</v>
-      </c>
-      <c r="J815" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K815" t="b">
-        <v>1</v>
-      </c>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="n">
-        <v>70</v>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr">
+      <c r="C816" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D816" t="n">
+      <c r="D816" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E816" t="inlineStr">
+      <c r="E816" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G816" t="b">
-        <v>1</v>
-      </c>
-      <c r="H816" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I816" t="b">
-        <v>1</v>
-      </c>
-      <c r="J816" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K816" t="b">
-        <v>1</v>
-      </c>
-      <c r="L816" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F816" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G816" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H816" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I816" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J816" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K816" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L816" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -46418,158 +46418,158 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" t="n">
+      <c r="A885" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B885" t="inlineStr">
+      <c r="B885" s="2" t="inlineStr">
         <is>
           <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
-      <c r="C885" t="inlineStr">
+      <c r="C885" s="2" t="inlineStr">
         <is>
           <t>Exiting</t>
         </is>
       </c>
-      <c r="D885" t="n">
-        <v>0</v>
-      </c>
-      <c r="E885" t="inlineStr">
+      <c r="D885" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E885" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F885" t="inlineStr">
+      <c r="F885" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G885" t="b">
-        <v>1</v>
-      </c>
-      <c r="H885" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I885" t="b">
-        <v>1</v>
-      </c>
-      <c r="J885" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K885" t="b">
-        <v>1</v>
-      </c>
-      <c r="L885" t="inlineStr">
+      <c r="G885" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H885" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I885" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J885" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K885" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L885" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="886">
-      <c r="A886" t="n">
+      <c r="A886" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B886" t="inlineStr">
+      <c r="B886" s="2" t="inlineStr">
         <is>
           <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
-      <c r="C886" t="inlineStr">
+      <c r="C886" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D886" t="n">
-        <v>1</v>
-      </c>
-      <c r="E886" t="inlineStr">
+      <c r="D886" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E886" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F886" t="inlineStr">
+      <c r="F886" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G886" t="b">
-        <v>1</v>
-      </c>
-      <c r="H886" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I886" t="b">
-        <v>1</v>
-      </c>
-      <c r="J886" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K886" t="b">
-        <v>1</v>
-      </c>
-      <c r="L886" t="inlineStr">
+      <c r="G886" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H886" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I886" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J886" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K886" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L886" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="n">
+      <c r="A887" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="B887" t="inlineStr">
+      <c r="B887" s="2" t="inlineStr">
         <is>
           <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
-      <c r="C887" t="inlineStr">
+      <c r="C887" s="2" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D887" t="n">
+      <c r="D887" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E887" t="inlineStr">
+      <c r="E887" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F887" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G887" t="b">
-        <v>1</v>
-      </c>
-      <c r="H887" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I887" t="b">
-        <v>1</v>
-      </c>
-      <c r="J887" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K887" t="b">
-        <v>1</v>
-      </c>
-      <c r="L887" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F887" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G887" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H887" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I887" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J887" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K887" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L887" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -50133,7 +50133,7 @@
       </c>
       <c r="F956" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G956" s="2" t="b">
@@ -50157,7 +50157,7 @@
       </c>
       <c r="L956" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50185,7 +50185,7 @@
       </c>
       <c r="F957" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G957" s="2" t="b">
@@ -50209,7 +50209,7 @@
       </c>
       <c r="L957" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50237,7 +50237,7 @@
       </c>
       <c r="F958" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G958" s="2" t="b">
@@ -50261,7 +50261,7 @@
       </c>
       <c r="L958" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50289,7 +50289,7 @@
       </c>
       <c r="F959" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G959" s="2" t="b">
@@ -50313,7 +50313,7 @@
       </c>
       <c r="L959" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50341,7 +50341,7 @@
       </c>
       <c r="F960" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G960" s="2" t="b">
@@ -50365,7 +50365,7 @@
       </c>
       <c r="L960" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50393,7 +50393,7 @@
       </c>
       <c r="F961" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G961" s="2" t="b">
@@ -50417,7 +50417,7 @@
       </c>
       <c r="L961" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50445,7 +50445,7 @@
       </c>
       <c r="F962" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G962" s="2" t="b">
@@ -50469,7 +50469,7 @@
       </c>
       <c r="L962" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50497,7 +50497,7 @@
       </c>
       <c r="F963" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G963" s="2" t="b">
@@ -50521,7 +50521,7 @@
       </c>
       <c r="L963" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -50549,7 +50549,7 @@
       </c>
       <c r="F964" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G964" s="2" t="b">
@@ -50573,7 +50573,7 @@
       </c>
       <c r="L964" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -53178,418 +53178,418 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" t="n">
+      <c r="A1015" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1015" t="inlineStr">
+      <c r="B1015" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1015" t="inlineStr">
+      <c r="C1015" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D1015" t="n">
+      <c r="D1015" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E1015" t="inlineStr">
+      <c r="E1015" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1015" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1015" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1015" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1015" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1015" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1015" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F1015" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G1015" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1015" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1015" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1015" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1015" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1015" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" t="n">
+      <c r="A1016" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1016" t="inlineStr">
+      <c r="B1016" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1016" t="inlineStr">
+      <c r="C1016" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D1016" t="n">
+      <c r="D1016" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E1016" t="inlineStr">
+      <c r="E1016" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1016" t="inlineStr">
+      <c r="F1016" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1016" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1016" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1016" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1016" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1016" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1016" t="inlineStr">
+      <c r="G1016" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1016" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1016" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1016" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1016" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1016" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="n">
+      <c r="A1017" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1017" t="inlineStr">
+      <c r="B1017" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1017" t="inlineStr">
+      <c r="C1017" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D1017" t="n">
+      <c r="D1017" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E1017" t="inlineStr">
+      <c r="E1017" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1017" t="inlineStr">
+      <c r="F1017" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1017" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1017" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1017" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1017" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1017" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1017" t="inlineStr">
+      <c r="G1017" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1017" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1017" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1017" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1017" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1017" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1018">
-      <c r="A1018" t="n">
+      <c r="A1018" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1018" t="inlineStr">
+      <c r="B1018" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1018" t="inlineStr">
+      <c r="C1018" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D1018" t="n">
+      <c r="D1018" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E1018" t="inlineStr">
+      <c r="E1018" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1018" t="inlineStr">
+      <c r="F1018" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1018" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1018" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1018" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1018" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1018" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1018" t="inlineStr">
+      <c r="G1018" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1018" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1018" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1018" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1018" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1018" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1019">
-      <c r="A1019" t="n">
+      <c r="A1019" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1019" t="inlineStr">
+      <c r="B1019" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1019" t="inlineStr">
+      <c r="C1019" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D1019" t="n">
+      <c r="D1019" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E1019" t="inlineStr">
+      <c r="E1019" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1019" t="inlineStr">
+      <c r="F1019" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1019" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1019" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1019" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1019" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1019" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1019" t="inlineStr">
+      <c r="G1019" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1019" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1019" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1019" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1019" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1019" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" t="n">
+      <c r="A1020" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1020" t="inlineStr">
+      <c r="B1020" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1020" t="inlineStr">
+      <c r="C1020" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D1020" t="n">
+      <c r="D1020" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E1020" t="inlineStr">
+      <c r="E1020" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1020" t="inlineStr">
+      <c r="F1020" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1020" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1020" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1020" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1020" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1020" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1020" t="inlineStr">
+      <c r="G1020" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1020" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1020" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1020" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1020" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1020" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1021">
-      <c r="A1021" t="n">
+      <c r="A1021" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1021" t="inlineStr">
+      <c r="B1021" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1021" t="inlineStr">
+      <c r="C1021" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D1021" t="n">
+      <c r="D1021" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E1021" t="inlineStr">
+      <c r="E1021" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1021" t="inlineStr">
+      <c r="F1021" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1021" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1021" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1021" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1021" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1021" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1021" t="inlineStr">
+      <c r="G1021" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1021" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1021" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1021" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1021" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1021" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" t="n">
+      <c r="A1022" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="B1022" t="inlineStr">
+      <c r="B1022" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C1022" t="inlineStr">
+      <c r="C1022" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D1022" t="n">
+      <c r="D1022" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E1022" t="inlineStr">
+      <c r="E1022" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1022" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1022" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1022" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1022" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1022" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1022" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1022" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F1022" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1022" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1022" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1022" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1022" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1022" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1022" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -64358,158 +64358,158 @@
       </c>
     </row>
     <row r="1230">
-      <c r="A1230" s="2" t="n">
+      <c r="A1230" t="n">
         <v>104</v>
       </c>
-      <c r="B1230" s="2" t="inlineStr">
+      <c r="B1230" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1230" s="2" t="inlineStr">
+      <c r="C1230" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D1230" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1230" s="2" t="inlineStr">
+      <c r="D1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1230" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1230" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1230" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1230" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G1230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" s="2" t="n">
+      <c r="A1231" t="n">
         <v>104</v>
       </c>
-      <c r="B1231" s="2" t="inlineStr">
+      <c r="B1231" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1231" s="2" t="inlineStr">
+      <c r="C1231" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D1231" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1231" s="2" t="inlineStr">
+      <c r="D1231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1231" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1231" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1231" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1231" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1232">
-      <c r="A1232" s="2" t="n">
+      <c r="A1232" t="n">
         <v>104</v>
       </c>
-      <c r="B1232" s="2" t="inlineStr">
+      <c r="B1232" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1232" s="2" t="inlineStr">
+      <c r="C1232" t="inlineStr">
         <is>
           <t>Recorded</t>
         </is>
       </c>
-      <c r="D1232" s="2" t="n">
+      <c r="D1232" t="n">
         <v>2</v>
       </c>
-      <c r="E1232" s="2" t="inlineStr">
+      <c r="E1232" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1232" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1232" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1232" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1232" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G1232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -66334,210 +66334,210 @@
       </c>
     </row>
     <row r="1268">
-      <c r="A1268" s="2" t="n">
+      <c r="A1268" t="n">
         <v>109</v>
       </c>
-      <c r="B1268" s="2" t="inlineStr">
+      <c r="B1268" t="inlineStr">
         <is>
           <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C1268" s="2" t="inlineStr">
+      <c r="C1268" t="inlineStr">
         <is>
           <t>Ensure</t>
         </is>
       </c>
-      <c r="D1268" s="2" t="n">
+      <c r="D1268" t="n">
         <v>4</v>
       </c>
-      <c r="E1268" s="2" t="inlineStr">
+      <c r="E1268" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1268" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G1268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1268" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1268" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1268" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1268" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1268" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1269">
-      <c r="A1269" s="2" t="n">
+      <c r="A1269" t="n">
         <v>109</v>
       </c>
-      <c r="B1269" s="2" t="inlineStr">
+      <c r="B1269" t="inlineStr">
         <is>
           <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C1269" s="2" t="inlineStr">
+      <c r="C1269" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D1269" s="2" t="n">
+      <c r="D1269" t="n">
         <v>5</v>
       </c>
-      <c r="E1269" s="2" t="inlineStr">
+      <c r="E1269" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1269" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1269" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1269" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1269" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1269" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1269" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1269" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1269" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1269" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1269" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1269" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1269" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1270">
-      <c r="A1270" s="2" t="n">
+      <c r="A1270" t="n">
         <v>109</v>
       </c>
-      <c r="B1270" s="2" t="inlineStr">
+      <c r="B1270" t="inlineStr">
         <is>
           <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C1270" s="2" t="inlineStr">
+      <c r="C1270" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D1270" s="2" t="n">
+      <c r="D1270" t="n">
         <v>6</v>
       </c>
-      <c r="E1270" s="2" t="inlineStr">
+      <c r="E1270" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1270" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1270" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1270" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1270" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1270" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1270" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1270" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1270" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1270" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1270" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1270" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1270" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="n">
+      <c r="A1271" t="n">
         <v>109</v>
       </c>
-      <c r="B1271" s="2" t="inlineStr">
+      <c r="B1271" t="inlineStr">
         <is>
           <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C1271" s="2" t="inlineStr">
+      <c r="C1271" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="D1271" s="2" t="n">
+      <c r="D1271" t="n">
         <v>7</v>
       </c>
-      <c r="E1271" s="2" t="inlineStr">
+      <c r="E1271" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1271" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1271" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1271" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1271" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1271" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1271" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1271" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1271" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1271" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1271" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1271" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -66958,106 +66958,106 @@
       </c>
     </row>
     <row r="1280">
-      <c r="A1280" s="2" t="n">
+      <c r="A1280" t="n">
         <v>111</v>
       </c>
-      <c r="B1280" s="2" t="inlineStr">
+      <c r="B1280" t="inlineStr">
         <is>
           <t>In Flight .</t>
         </is>
       </c>
-      <c r="C1280" s="2" t="inlineStr">
+      <c r="C1280" t="inlineStr">
         <is>
           <t>In</t>
         </is>
       </c>
-      <c r="D1280" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1280" s="2" t="inlineStr">
+      <c r="D1280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1280" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1280" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G1280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1280" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1280" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1280" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1280" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1281">
-      <c r="A1281" s="2" t="n">
+      <c r="A1281" t="n">
         <v>111</v>
       </c>
-      <c r="B1281" s="2" t="inlineStr">
+      <c r="B1281" t="inlineStr">
         <is>
           <t>In Flight .</t>
         </is>
       </c>
-      <c r="C1281" s="2" t="inlineStr">
+      <c r="C1281" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D1281" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1281" s="2" t="inlineStr">
+      <c r="D1281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1281" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1281" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1281" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1281" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1281" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1281" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -67790,210 +67790,210 @@
       </c>
     </row>
     <row r="1296">
-      <c r="A1296" t="n">
+      <c r="A1296" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="B1296" t="inlineStr">
+      <c r="B1296" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C1296" t="inlineStr">
+      <c r="C1296" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D1296" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1296" t="inlineStr">
+      <c r="D1296" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1296" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1296" t="inlineStr">
+      <c r="F1296" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1296" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1296" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1296" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1296" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1296" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1296" t="inlineStr">
+      <c r="G1296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1296" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1296" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1296" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1297">
-      <c r="A1297" t="n">
+      <c r="A1297" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="B1297" t="inlineStr">
+      <c r="B1297" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C1297" t="inlineStr">
+      <c r="C1297" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D1297" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1297" t="inlineStr">
+      <c r="D1297" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1297" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1297" t="inlineStr">
+      <c r="F1297" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1297" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1297" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1297" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B1298" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space . Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C1298" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D1298" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1298" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1297" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1297" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1297" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1297" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="1298">
-      <c r="A1298" t="n">
+      <c r="F1298" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1298" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1298" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1298" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="B1298" t="inlineStr">
+      <c r="B1299" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
-      <c r="C1298" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D1298" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1298" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F1298" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1298" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1298" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1298" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="1299">
-      <c r="A1299" t="n">
-        <v>113</v>
-      </c>
-      <c r="B1299" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C1299" t="inlineStr">
+      <c r="C1299" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D1299" t="n">
+      <c r="D1299" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1299" t="inlineStr">
+      <c r="E1299" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1299" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1299" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1299" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1299" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1299" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1299" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F1299" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1299" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1299" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1299" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1299" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1299" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -72366,574 +72366,574 @@
       </c>
     </row>
     <row r="1384">
-      <c r="A1384" s="2" t="n">
+      <c r="A1384" t="n">
         <v>123</v>
       </c>
-      <c r="B1384" s="2" t="inlineStr">
+      <c r="B1384" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1384" s="2" t="inlineStr">
+      <c r="C1384" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D1384" s="2" t="n">
+      <c r="D1384" t="n">
         <v>3</v>
       </c>
-      <c r="E1384" s="2" t="inlineStr">
+      <c r="E1384" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1384" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1384" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1384" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1384" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1384" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1384" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1384" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1384" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G1384" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1384" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1384" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1384" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1384" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1385">
-      <c r="A1385" s="2" t="n">
+      <c r="A1385" t="n">
         <v>123</v>
       </c>
-      <c r="B1385" s="2" t="inlineStr">
+      <c r="B1385" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1385" s="2" t="inlineStr">
+      <c r="C1385" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D1385" s="2" t="n">
+      <c r="D1385" t="n">
         <v>4</v>
       </c>
-      <c r="E1385" s="2" t="inlineStr">
+      <c r="E1385" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1385" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1385" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1385" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1385" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1385" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1385" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1385" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1385" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1385" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1385" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1385" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1385" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1385" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1385" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1386">
-      <c r="A1386" s="2" t="n">
+      <c r="A1386" t="n">
         <v>123</v>
       </c>
-      <c r="B1386" s="2" t="inlineStr">
+      <c r="B1386" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1386" s="2" t="inlineStr">
+      <c r="C1386" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D1386" s="2" t="n">
+      <c r="D1386" t="n">
         <v>5</v>
       </c>
-      <c r="E1386" s="2" t="inlineStr">
+      <c r="E1386" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1386" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1386" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1386" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1386" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1386" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1386" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1386" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1386" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1386" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1386" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1386" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1386" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1386" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1387">
-      <c r="A1387" s="2" t="n">
+      <c r="A1387" t="n">
         <v>123</v>
       </c>
-      <c r="B1387" s="2" t="inlineStr">
+      <c r="B1387" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1387" s="2" t="inlineStr">
+      <c r="C1387" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D1387" s="2" t="n">
+      <c r="D1387" t="n">
         <v>6</v>
       </c>
-      <c r="E1387" s="2" t="inlineStr">
+      <c r="E1387" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1387" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1387" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1388">
-      <c r="A1388" s="2" t="n">
+      <c r="A1388" t="n">
         <v>123</v>
       </c>
-      <c r="B1388" s="2" t="inlineStr">
+      <c r="B1388" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1388" s="2" t="inlineStr">
+      <c r="C1388" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D1388" s="2" t="n">
+      <c r="D1388" t="n">
         <v>7</v>
       </c>
-      <c r="E1388" s="2" t="inlineStr">
+      <c r="E1388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1389">
-      <c r="A1389" s="2" t="n">
+      <c r="A1389" t="n">
         <v>123</v>
       </c>
-      <c r="B1389" s="2" t="inlineStr">
+      <c r="B1389" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1389" s="2" t="inlineStr">
+      <c r="C1389" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D1389" s="2" t="n">
+      <c r="D1389" t="n">
         <v>8</v>
       </c>
-      <c r="E1389" s="2" t="inlineStr">
+      <c r="E1389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1390">
-      <c r="A1390" s="2" t="n">
+      <c r="A1390" t="n">
         <v>123</v>
       </c>
-      <c r="B1390" s="2" t="inlineStr">
+      <c r="B1390" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1390" s="2" t="inlineStr">
+      <c r="C1390" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D1390" s="2" t="n">
+      <c r="D1390" t="n">
         <v>9</v>
       </c>
-      <c r="E1390" s="2" t="inlineStr">
+      <c r="E1390" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1390" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1390" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1391">
-      <c r="A1391" s="2" t="n">
+      <c r="A1391" t="n">
         <v>123</v>
       </c>
-      <c r="B1391" s="2" t="inlineStr">
+      <c r="B1391" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1391" s="2" t="inlineStr">
+      <c r="C1391" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D1391" s="2" t="n">
+      <c r="D1391" t="n">
         <v>10</v>
       </c>
-      <c r="E1391" s="2" t="inlineStr">
+      <c r="E1391" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1391" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1391" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1391" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1391" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1391" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1391" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1392">
-      <c r="A1392" s="2" t="n">
+      <c r="A1392" t="n">
         <v>123</v>
       </c>
-      <c r="B1392" s="2" t="inlineStr">
+      <c r="B1392" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1392" s="2" t="inlineStr">
+      <c r="C1392" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D1392" s="2" t="n">
+      <c r="D1392" t="n">
         <v>11</v>
       </c>
-      <c r="E1392" s="2" t="inlineStr">
+      <c r="E1392" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1392" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1392" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1392" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1392" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1392" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1393">
-      <c r="A1393" s="2" t="n">
+      <c r="A1393" t="n">
         <v>123</v>
       </c>
-      <c r="B1393" s="2" t="inlineStr">
+      <c r="B1393" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1393" s="2" t="inlineStr">
+      <c r="C1393" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D1393" s="2" t="n">
+      <c r="D1393" t="n">
         <v>12</v>
       </c>
-      <c r="E1393" s="2" t="inlineStr">
+      <c r="E1393" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1393" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1393" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1393" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1393" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1393" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1394">
-      <c r="A1394" s="2" t="n">
+      <c r="A1394" t="n">
         <v>123</v>
       </c>
-      <c r="B1394" s="2" t="inlineStr">
+      <c r="B1394" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C1394" s="2" t="inlineStr">
+      <c r="C1394" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D1394" s="2" t="n">
+      <c r="D1394" t="n">
         <v>13</v>
       </c>
-      <c r="E1394" s="2" t="inlineStr">
+      <c r="E1394" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1394" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1394" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K1394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F1394" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G1394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1394" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1394" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1394" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -74897,11 +74897,11 @@
         </is>
       </c>
       <c r="I1432" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1432" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1432" s="2" t="b">
@@ -74949,11 +74949,11 @@
         </is>
       </c>
       <c r="I1433" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1433" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1433" s="2" t="b">
@@ -74989,7 +74989,7 @@
       </c>
       <c r="F1434" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G1434" s="2" t="b">
@@ -75001,11 +75001,11 @@
         </is>
       </c>
       <c r="I1434" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1434" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1434" s="2" t="b">
@@ -75013,7 +75013,7 @@
       </c>
       <c r="L1434" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -75434,208 +75434,208 @@
       </c>
     </row>
     <row r="1443">
-      <c r="A1443" t="n">
+      <c r="A1443" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="B1443" t="inlineStr">
+      <c r="B1443" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C1443" t="inlineStr">
+      <c r="C1443" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D1443" t="n">
+      <c r="D1443" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1443" t="inlineStr">
+      <c r="E1443" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1443" t="inlineStr">
+      <c r="F1443" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1443" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1443" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1443" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1443" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1443" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1443" t="inlineStr">
+      <c r="G1443" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1443" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1443" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1443" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1443" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1444">
-      <c r="A1444" t="n">
+      <c r="A1444" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="B1444" t="inlineStr">
+      <c r="B1444" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C1444" t="inlineStr">
+      <c r="C1444" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D1444" t="n">
+      <c r="D1444" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E1444" t="inlineStr">
+      <c r="E1444" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1444" t="inlineStr">
+      <c r="F1444" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1444" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1444" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1444" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1444" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1444" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B1445" s="2" t="inlineStr">
+        <is>
+          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
+        </is>
+      </c>
+      <c r="C1445" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D1445" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1445" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1444" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1444" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1444" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1444" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1444" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1444" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="1445">
-      <c r="A1445" t="n">
+      <c r="F1445" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1445" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1445" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1445" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1445" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1445" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="B1445" t="inlineStr">
+      <c r="B1446" s="2" t="inlineStr">
         <is>
           <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C1445" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D1445" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1445" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F1445" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1445" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1445" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1445" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1445" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1445" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1445" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="1446">
-      <c r="A1446" t="n">
-        <v>126</v>
-      </c>
-      <c r="B1446" t="inlineStr">
-        <is>
-          <t>No GPS . Return to Home failed . Return the aircraft to home manually .</t>
-        </is>
-      </c>
-      <c r="C1446" t="inlineStr">
+      <c r="C1446" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D1446" t="n">
+      <c r="D1446" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E1446" t="inlineStr">
+      <c r="E1446" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1446" t="inlineStr">
+      <c r="F1446" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G1446" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1446" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1446" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1446" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1446" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1446" t="inlineStr">
+      <c r="G1446" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1446" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1446" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1446" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1446" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1446" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -83078,208 +83078,208 @@
       </c>
     </row>
     <row r="1590">
-      <c r="A1590" s="2" t="n">
+      <c r="A1590" t="n">
         <v>141</v>
       </c>
-      <c r="B1590" s="2" t="inlineStr">
+      <c r="B1590" t="inlineStr">
         <is>
           <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C1590" s="2" t="inlineStr">
+      <c r="C1590" t="inlineStr">
         <is>
           <t>Adjust</t>
         </is>
       </c>
-      <c r="D1590" s="2" t="n">
+      <c r="D1590" t="n">
         <v>5</v>
       </c>
-      <c r="E1590" s="2" t="inlineStr">
+      <c r="E1590" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1590" s="2" t="inlineStr">
+      <c r="F1590" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1590" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1590" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1590" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1590" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1590" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1590" s="2" t="inlineStr">
+      <c r="G1590" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1590" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1590" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1590" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1590" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1590" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1591">
-      <c r="A1591" s="2" t="n">
+      <c r="A1591" t="n">
         <v>141</v>
       </c>
-      <c r="B1591" s="2" t="inlineStr">
+      <c r="B1591" t="inlineStr">
         <is>
           <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C1591" s="2" t="inlineStr">
+      <c r="C1591" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="D1591" s="2" t="n">
+      <c r="D1591" t="n">
         <v>6</v>
       </c>
-      <c r="E1591" s="2" t="inlineStr">
+      <c r="E1591" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1591" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1591" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1591" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1591" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1591" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1591" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1591" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1591" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1591" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1591" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1591" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1591" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1591" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1592">
-      <c r="A1592" s="2" t="n">
+      <c r="A1592" t="n">
         <v>141</v>
       </c>
-      <c r="B1592" s="2" t="inlineStr">
+      <c r="B1592" t="inlineStr">
         <is>
           <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C1592" s="2" t="inlineStr">
+      <c r="C1592" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D1592" s="2" t="n">
+      <c r="D1592" t="n">
         <v>7</v>
       </c>
-      <c r="E1592" s="2" t="inlineStr">
+      <c r="E1592" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1592" s="2" t="inlineStr">
+      <c r="F1592" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1592" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1592" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1592" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1592" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1592" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1592" s="2" t="inlineStr">
+      <c r="G1592" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1592" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1592" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1592" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1592" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1592" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1593">
-      <c r="A1593" s="2" t="n">
+      <c r="A1593" t="n">
         <v>141</v>
       </c>
-      <c r="B1593" s="2" t="inlineStr">
+      <c r="B1593" t="inlineStr">
         <is>
           <t>Remote controller signal weak . Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C1593" s="2" t="inlineStr">
+      <c r="C1593" t="inlineStr">
         <is>
           <t>antennas</t>
         </is>
       </c>
-      <c r="D1593" s="2" t="n">
+      <c r="D1593" t="n">
         <v>8</v>
       </c>
-      <c r="E1593" s="2" t="inlineStr">
+      <c r="E1593" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1593" s="2" t="inlineStr">
+      <c r="F1593" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G1593" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1593" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1593" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1593" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1593" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1593" s="2" t="inlineStr">
+      <c r="G1593" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1593" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1593" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1593" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1593" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1593" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -84482,262 +84482,262 @@
       </c>
     </row>
     <row r="1617">
-      <c r="A1617" s="2" t="n">
+      <c r="A1617" t="n">
         <v>144</v>
       </c>
-      <c r="B1617" s="2" t="inlineStr">
+      <c r="B1617" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C1617" s="2" t="inlineStr">
+      <c r="C1617" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D1617" s="2" t="n">
+      <c r="D1617" t="n">
         <v>4</v>
       </c>
-      <c r="E1617" s="2" t="inlineStr">
+      <c r="E1617" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1617" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G1617" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1617" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1617" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1617" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1617" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1617" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1617" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1617" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1617" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1617" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1617" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1618">
-      <c r="A1618" s="2" t="n">
+      <c r="A1618" t="n">
         <v>144</v>
       </c>
-      <c r="B1618" s="2" t="inlineStr">
+      <c r="B1618" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C1618" s="2" t="inlineStr">
+      <c r="C1618" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D1618" s="2" t="n">
+      <c r="D1618" t="n">
         <v>5</v>
       </c>
-      <c r="E1618" s="2" t="inlineStr">
+      <c r="E1618" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1618" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1618" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1618" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1618" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1618" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1618" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1618" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1618" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1618" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1618" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1618" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1618" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1619">
-      <c r="A1619" s="2" t="n">
+      <c r="A1619" t="n">
         <v>144</v>
       </c>
-      <c r="B1619" s="2" t="inlineStr">
+      <c r="B1619" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C1619" s="2" t="inlineStr">
+      <c r="C1619" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D1619" s="2" t="n">
+      <c r="D1619" t="n">
         <v>6</v>
       </c>
-      <c r="E1619" s="2" t="inlineStr">
+      <c r="E1619" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1619" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1619" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1619" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1619" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1619" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1619" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1619" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1619" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1619" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1619" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1619" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1619" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1620">
-      <c r="A1620" s="2" t="n">
+      <c r="A1620" t="n">
         <v>144</v>
       </c>
-      <c r="B1620" s="2" t="inlineStr">
+      <c r="B1620" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C1620" s="2" t="inlineStr">
+      <c r="C1620" t="inlineStr">
         <is>
           <t>take</t>
         </is>
       </c>
-      <c r="D1620" s="2" t="n">
+      <c r="D1620" t="n">
         <v>7</v>
       </c>
-      <c r="E1620" s="2" t="inlineStr">
+      <c r="E1620" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1620" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G1620" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1620" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1620" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1620" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1620" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1620" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1620" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1620" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1620" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1620" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1620" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1621">
-      <c r="A1621" s="2" t="n">
+      <c r="A1621" t="n">
         <v>144</v>
       </c>
-      <c r="B1621" s="2" t="inlineStr">
+      <c r="B1621" t="inlineStr">
         <is>
           <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C1621" s="2" t="inlineStr">
+      <c r="C1621" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D1621" s="2" t="n">
+      <c r="D1621" t="n">
         <v>8</v>
       </c>
-      <c r="E1621" s="2" t="inlineStr">
+      <c r="E1621" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1621" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1621" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1621" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1621" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1621" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1621" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1621" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1621" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1621" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1621" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1621" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1621" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
